--- a/Ecopulpers/Baseline Results/impact_2.xlsx
+++ b/Ecopulpers/Baseline Results/impact_2.xlsx
@@ -14,56 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+  <si>
+    <t>Investment</t>
+  </si>
   <si>
     <t>Saving</t>
   </si>
   <si>
-    <t>Investment</t>
+    <t>PROI</t>
+  </si>
+  <si>
+    <t>PPBT</t>
   </si>
   <si>
     <t>Water Saving</t>
   </si>
   <si>
+    <t>Emission Saving</t>
+  </si>
+  <si>
+    <t>Land Saving</t>
+  </si>
+  <si>
+    <t>Import Saving</t>
+  </si>
+  <si>
+    <t>Capital Saving</t>
+  </si>
+  <si>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
     <t>Water Investment</t>
   </si>
   <si>
-    <t>Emission Saving</t>
-  </si>
-  <si>
     <t>Emission Investment</t>
   </si>
   <si>
-    <t>Land Saving</t>
-  </si>
-  <si>
     <t>Land Investment</t>
   </si>
   <si>
-    <t>Workforce Saving</t>
+    <t>Import Investment</t>
   </si>
   <si>
     <t>Workforce Investment</t>
   </si>
   <si>
-    <t>Capital Saving</t>
-  </si>
-  <si>
     <t>Capital Investment</t>
   </si>
   <si>
-    <t>Import Saving</t>
-  </si>
-  <si>
-    <t>Import Investment</t>
-  </si>
-  <si>
-    <t>PROI</t>
-  </si>
-  <si>
-    <t>PPBT</t>
-  </si>
-  <si>
     <t>Water Total Impact</t>
   </si>
   <si>
@@ -82,22 +82,28 @@
     <t>Capital Total Impact</t>
   </si>
   <si>
-    <t>0.107</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>0.109</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.111</t>
-  </si>
-  <si>
-    <t>0.112</t>
+    <t>M KSH</t>
+  </si>
+  <si>
+    <t>1/years</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Mm3</t>
+  </si>
+  <si>
+    <t>Gg</t>
+  </si>
+  <si>
+    <t>kha</t>
+  </si>
+  <si>
+    <t>intervention</t>
+  </si>
+  <si>
+    <t>baseline</t>
   </si>
 </sst>
 </file>
@@ -455,504 +461,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>0.6575707560405135</v>
-      </c>
-      <c r="C2">
-        <v>0.9672997519373894</v>
-      </c>
-      <c r="D2">
-        <v>0.03149514546385035</v>
-      </c>
-      <c r="E2">
-        <v>0.002326779533177614</v>
-      </c>
-      <c r="F2">
-        <v>0.000475212631499744</v>
-      </c>
-      <c r="G2">
-        <v>0.002131756693415809</v>
-      </c>
-      <c r="H2">
-        <v>0.003297724671028845</v>
-      </c>
-      <c r="I2">
-        <v>9.303769729740452E-06</v>
-      </c>
-      <c r="J2">
-        <v>0.06288608955219388</v>
-      </c>
-      <c r="K2">
-        <v>0.05942971026524901</v>
-      </c>
-      <c r="L2">
-        <v>0.02010648092254996</v>
-      </c>
-      <c r="M2">
-        <v>0.5468479746486992</v>
-      </c>
-      <c r="N2">
-        <v>0.05840306496247649</v>
-      </c>
-      <c r="O2">
-        <v>0.3017503712326288</v>
-      </c>
-      <c r="P2">
-        <v>0.6798003976776335</v>
-      </c>
-      <c r="Q2">
-        <v>1.471020027961513</v>
-      </c>
-      <c r="R2">
-        <v>-0.3126246751053259</v>
-      </c>
-      <c r="S2">
-        <v>-0.002620369621581631</v>
-      </c>
-      <c r="T2">
-        <v>-0.03296794294055871</v>
-      </c>
-      <c r="U2">
-        <v>-0.2822802783921361</v>
-      </c>
-      <c r="V2">
-        <v>-0.5694311852566898</v>
-      </c>
-      <c r="W2">
-        <v>0.3457831654231995</v>
+    <row r="2" spans="1:24">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>0.6575706861913204</v>
-      </c>
-      <c r="C3">
-        <v>0.9672997519373894</v>
-      </c>
-      <c r="D3">
-        <v>0.03149514521646779</v>
-      </c>
-      <c r="E3">
-        <v>0.002326779533177614</v>
-      </c>
-      <c r="F3">
-        <v>0.000475212536912295</v>
-      </c>
-      <c r="G3">
-        <v>0.002131756693415809</v>
-      </c>
-      <c r="H3">
-        <v>0.003297724669209856</v>
-      </c>
-      <c r="I3">
-        <v>9.303769729740452E-06</v>
-      </c>
-      <c r="J3">
-        <v>0.06288608815521002</v>
-      </c>
-      <c r="K3">
-        <v>0.05942971026524901</v>
-      </c>
-      <c r="L3">
-        <v>0.02010647626593709</v>
-      </c>
-      <c r="M3">
-        <v>0.5468479746486992</v>
-      </c>
-      <c r="N3">
-        <v>0.05840301513671875</v>
-      </c>
-      <c r="O3">
-        <v>0.3017503712326288</v>
-      </c>
-      <c r="P3">
-        <v>0.6798003254671393</v>
-      </c>
-      <c r="Q3">
-        <v>1.471020184217812</v>
-      </c>
-      <c r="R3">
-        <v>-0.3126246726315003</v>
-      </c>
-      <c r="S3">
-        <v>-0.002620368675707141</v>
-      </c>
-      <c r="T3">
-        <v>-0.03296794292236882</v>
-      </c>
-      <c r="U3">
-        <v>-0.2822797801345587</v>
-      </c>
-      <c r="V3">
-        <v>-0.5694311712868512</v>
-      </c>
-      <c r="W3">
-        <v>0.3457832119893283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>0.6575706154108047</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.9672997519373894</v>
+        <v>0.9599999189376831</v>
       </c>
       <c r="D4">
-        <v>0.03149514496908523</v>
+        <v>0.5165128046646714</v>
       </c>
       <c r="E4">
-        <v>0.002326779533177614</v>
+        <v>0.5380342169572621</v>
       </c>
       <c r="F4">
-        <v>0.0004752124441438355</v>
+        <v>1.85861785084095</v>
       </c>
       <c r="G4">
-        <v>0.002131756693415809</v>
+        <v>1.397888237581355</v>
       </c>
       <c r="H4">
-        <v>0.003297724669209856</v>
+        <v>0.0002506960263417568</v>
       </c>
       <c r="I4">
-        <v>9.303769729740452E-06</v>
+        <v>0.003066791360652132</v>
       </c>
       <c r="J4">
-        <v>0.06288608629256487</v>
+        <v>0.05298554268665612</v>
       </c>
       <c r="K4">
-        <v>0.05942971026524901</v>
+        <v>0.01462937006726861</v>
       </c>
       <c r="L4">
-        <v>0.02010647184215486</v>
+        <v>0.05580992018803954</v>
       </c>
       <c r="M4">
-        <v>0.5468479746486992</v>
+        <v>0.002158028437406756</v>
       </c>
       <c r="N4">
-        <v>0.05840296507813036</v>
+        <v>0.001979796430532588</v>
       </c>
       <c r="O4">
-        <v>0.3017503712326288</v>
+        <v>8.62317938299384E-06</v>
       </c>
       <c r="P4">
-        <v>0.6798002522938386</v>
+        <v>0.2802074924111366</v>
       </c>
       <c r="Q4">
-        <v>1.471020342557563</v>
+        <v>0.05442387005314231</v>
       </c>
       <c r="R4">
-        <v>-0.3126246701576747</v>
+        <v>0.507281495956704</v>
       </c>
       <c r="S4">
-        <v>-0.002620367748022545</v>
+        <v>-13.97672434737615</v>
       </c>
       <c r="T4">
-        <v>-0.03296794292236882</v>
+        <v>-0.0005271638328849804</v>
       </c>
       <c r="U4">
-        <v>-0.2822792795486748</v>
+        <v>-0.03065929042713833</v>
       </c>
       <c r="V4">
-        <v>-0.5694311526603997</v>
+        <v>-0.2496479344554245</v>
       </c>
       <c r="W4">
-        <v>0.3457832562271506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>0.6575705446302891</v>
-      </c>
-      <c r="C5">
-        <v>0.9672997519373894</v>
-      </c>
-      <c r="D5">
-        <v>0.03149514473625459</v>
-      </c>
-      <c r="E5">
-        <v>0.002326779533177614</v>
-      </c>
-      <c r="F5">
-        <v>0.0004752123495563865</v>
-      </c>
-      <c r="G5">
-        <v>0.002131756693415809</v>
-      </c>
-      <c r="H5">
-        <v>0.003297724669209856</v>
-      </c>
-      <c r="I5">
-        <v>9.303769729740452E-06</v>
-      </c>
-      <c r="J5">
-        <v>0.06288608489558101</v>
-      </c>
-      <c r="K5">
-        <v>0.05942971026524901</v>
-      </c>
-      <c r="L5">
-        <v>0.02010646765120327</v>
-      </c>
-      <c r="M5">
-        <v>0.5468479746486992</v>
-      </c>
-      <c r="N5">
-        <v>0.05840291455388069</v>
-      </c>
-      <c r="O5">
-        <v>0.3017503712326288</v>
-      </c>
-      <c r="P5">
-        <v>0.6798001791205378</v>
-      </c>
-      <c r="Q5">
-        <v>1.471020500897347</v>
-      </c>
-      <c r="R5">
-        <v>-0.3126246678293683</v>
-      </c>
-      <c r="S5">
-        <v>-0.002620366802148055</v>
-      </c>
-      <c r="T5">
-        <v>-0.03296794292236882</v>
-      </c>
-      <c r="U5">
-        <v>-0.2822787743061781</v>
-      </c>
-      <c r="V5">
-        <v>-0.5694311386905611</v>
-      </c>
-      <c r="W5">
-        <v>0.3457832981366664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>0.6575704757124186</v>
-      </c>
-      <c r="C6">
-        <v>0.9672997519373894</v>
-      </c>
-      <c r="D6">
-        <v>0.03149514448887203</v>
-      </c>
-      <c r="E6">
-        <v>0.002326779533177614</v>
-      </c>
-      <c r="F6">
-        <v>0.0004752122513309587</v>
-      </c>
-      <c r="G6">
-        <v>0.002131756693415809</v>
-      </c>
-      <c r="H6">
-        <v>0.003297724669209856</v>
-      </c>
-      <c r="I6">
-        <v>9.303769729740452E-06</v>
-      </c>
-      <c r="J6">
-        <v>0.06288608349859715</v>
-      </c>
-      <c r="K6">
-        <v>0.05942971026524901</v>
-      </c>
-      <c r="L6">
-        <v>0.0201064629945904</v>
-      </c>
-      <c r="M6">
-        <v>0.5468479746486992</v>
-      </c>
-      <c r="N6">
-        <v>0.05840286472812295</v>
-      </c>
-      <c r="O6">
-        <v>0.3017503712326288</v>
-      </c>
-      <c r="P6">
-        <v>0.6798001078728502</v>
-      </c>
-      <c r="Q6">
-        <v>1.471020655070328</v>
-      </c>
-      <c r="R6">
-        <v>-0.3126246653555427</v>
-      </c>
-      <c r="S6">
-        <v>-0.002620365819893777</v>
-      </c>
-      <c r="T6">
-        <v>-0.03296794292236882</v>
-      </c>
-      <c r="U6">
-        <v>-0.2822782760486007</v>
-      </c>
-      <c r="V6">
-        <v>-0.5694311247207224</v>
-      </c>
-      <c r="W6">
-        <v>0.3457833447027951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>0.6575704049319029</v>
-      </c>
-      <c r="C7">
-        <v>0.9672997519373894</v>
-      </c>
-      <c r="D7">
-        <v>0.03149514424148947</v>
-      </c>
-      <c r="E7">
-        <v>0.002326779533177614</v>
-      </c>
-      <c r="F7">
-        <v>0.0004752121567435097</v>
-      </c>
-      <c r="G7">
-        <v>0.002131756693415809</v>
-      </c>
-      <c r="H7">
-        <v>0.003297724667390867</v>
-      </c>
-      <c r="I7">
-        <v>9.303769729740452E-06</v>
-      </c>
-      <c r="J7">
-        <v>0.06288608210161328</v>
-      </c>
-      <c r="K7">
-        <v>0.05942971026524901</v>
-      </c>
-      <c r="L7">
-        <v>0.02010645903646946</v>
-      </c>
-      <c r="M7">
-        <v>0.5468479746486992</v>
-      </c>
-      <c r="N7">
-        <v>0.05840281443670392</v>
-      </c>
-      <c r="O7">
-        <v>0.3017503712326288</v>
-      </c>
-      <c r="P7">
-        <v>0.6798000346995494</v>
-      </c>
-      <c r="Q7">
-        <v>1.47102081341018</v>
-      </c>
-      <c r="R7">
-        <v>-0.3126246628817171</v>
-      </c>
-      <c r="S7">
-        <v>-0.002620364874019288</v>
-      </c>
-      <c r="T7">
-        <v>-0.03296794290417893</v>
-      </c>
-      <c r="U7">
-        <v>-0.2822777731344104</v>
-      </c>
-      <c r="V7">
-        <v>-0.5694311107508838</v>
-      </c>
-      <c r="W7">
-        <v>0.3457833842840046</v>
+        <v>-0.5036753318272531</v>
+      </c>
+      <c r="X4">
+        <v>0.3609877952840179</v>
       </c>
     </row>
   </sheetData>
